--- a/casinos.xlsx
+++ b/casinos.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G397"/>
+  <dimension ref="A2:G633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K43" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="Y375" sqref="Y375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -10097,6 +10097,5075 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Capitol Casino</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Capitol Casino is a top poker destination with many gaming tables, a café &amp; restaurant, and a dedicated bar &amp; lounge right in the heart of downtown Sacramento.
+We offer a large selection of table games, a table set for every type of casino player, and regular tournaments with the biggest prize pools in the region.</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>https://www.capitol-casino.com</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>916-446-0700</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Santa Ana Star Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At Santa Ana Star Casino Hotel, “New Mexico’s Best Bet,” we became the first Native-American casino to operate in New Mexico, opening our doors in 1993. Growing from only 64 slot machines, today we feature more than 1,500 machines independently certified as the “Loosest Slots in New Mexico” by Strictly Slots® Magazine. In addition, we feature over  20 table games, live poker, and offer the best odds and pay tables for Video Poker in New Mexico.
+We are located just minutes north of Albuquerque and Rio Rancho. We offer a fun and friendly casino experience with an infusion of New Mexican charm. Reflecting the cultural authenticity and timelessness of the great Southwest, we are an easily accessible regional destination for entertainment, excitement and good, old fashioned value.
+</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>https://www.santaanastar.com/</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>505-867-0000</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Apache Gold Casino &amp; Resort</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Apache Gold Casino &amp; Resort is owned by the San Carlos Apache Tribe whose tribal land covers over 1.8 million acres in eastern Arizona, from the Sonoran desert to Ponderosa pine forests. The Tribe's ancestral lands once stretched across Arizona into New Mexico.  Historically, the San Carlos Apache were hunters, and they have deep cultural and spiritual ties to the land. The tribe has made the decision to keep most of its land in a natural state, which protects the habitat for big and small game and allows the Apache to preserve their special and personal relationship with the natural world.
+Apache Gold Casino, located five miles east of Globe, Arizona on US Highway 70, also features the 146 room, AAA '3-diamond'​ rated APACHE GOLD RESORT HOTEL, formerly associated with Best Western Hotels and now owned and operated by the San Carlos Apache Tribe. 
+The Apache Gold Stronghold Golf Club is an 18-hole, par 72 high desert golf course with a USGA rating of 74.6 and a USGA slope of 145. Opened in 1999, the 7,519 yard-long course was designed by Tom Doak and challenges golfers with natural features including desert washes, rolling topography and natural rugged bunkers.
+For dining, AGCR offers the Apache Prime Steakhouse, Wickiup Buffet, Black River Grill, and Snax. The Point Sports Bar provides multiple-screen sports viewing, with daily drink specials.
+The Apache Gold Casino &amp; Resort also offers an RV Park, Convenience Store, Gas Station, in addition to the Cutter Coffee Company, the beverage and baked goods purveyor.
+Apache Gold Casino &amp; Resort is centrally located, about an hour and a half from either Phoenix, Tucson or Safford, in San Carlos, Arizona. Nearby Globe, Arizona is known for its antiques shops and quaint, historic downtown section.</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>http://www.apache-gold-casino.com</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>8772722433</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Aquarius Casino Resort</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Havasu Regional Medical Center</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>https://www.havasuregional.com</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>928.855.8185</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Santa Ana Star Casino</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>New Mexico’s first tribal casino, winner of numerous awards as top employer in the State.</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>http://Santaanastar.com</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riverwalk Casino Hotel </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Riverwalk Casino Hotel</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>https://www.riverwalkvicksburg.com/</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Century Casino Cape Girardeau</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Looking to live it up in Cape Girardeau? Century Casino Cape Girardeau is calling your name! Try your luck at any of our 19 table games, 4 live-action poker tables or over 800 of your favorite gaming machines. If you are looking for a quick bite to eat, Century Casino Cape Girardeau has what your appetite desires. Extend your visit by taking advantage of great rates at popular local hotels. What are you waiting for? Century Casino Cape Girardeau is located downtown Cape Girardeau at 777 N Main Street.
+</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://www.cnty.com/cape-girardeau/</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Leelanau Sands Casino &amp; Lodge</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Located 20 miles north of Traverse City on M-22 in Peshawbestown, Michigan - Leelanau Sands Casino &amp; Lodge features a bingo hall, slot machines, table games including craps, roulette, 3-card poker, blackjack and the latest virtual table games.
+</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>https://leelanausandscasino.com/</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>(231) 534-8100</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Bally's Evansville Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>WELCOME TO THE ALL NEW BALLY’S EVANSVILLE CASINO &amp; HOTEL, FORMERLY TROPICANA EVANSVILLE!
+Bally’s Evansville offers comfortable hotel rooms on the Ohio river and the hottest table-games, slots and video-gaming in Indiana on their casino floor.
+24-Hour Gaming is Back! Enjoy your favorite games, 24 hours a day, 7 days a week!</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>https://ballysevansville.com/</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Bitcoin.Casino</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Bitcoin.Casino reviews bitcoin gambling sites and the top bitcoin casinos for betting real BTC.  Find out what bitcoin is and learn about bitcoin wallets available for playing at casinos online. Play bitcoin slot machines and bitcoin blackjack to win real BTC. Bitcoin.Casino hosts free casino games to play including online slots and blackjack games. Play online bitcoin casino games at the web's #1 bitcoin gambling guide.</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>http://bitcoin.casino/</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>River Rock Casino</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our mission is to provide a quality entertainment experience for every guest by delivering excellent customer service and product in a fun environment. We respect our relationships with each other, or visitors, our neighbors, and our community; and we acknowledge our actions reflect upon ourselves, and the Dry Creek Band of Pomo Indians and pledge to honor both. </t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>http://www.riverrockcasino.com</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>707-857-2777</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Hyatt Regency Lake Tahoe Resort, Spa &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experience the perfect destination to connect with family - and yourself - while enjoying the natural wonders surrounding our Lake Tahoe Resort. Located in the Sierra Mountain Range, our AAA Four Diamond hotel is a stunning lakeside destination for year-round adventure. Take advantage of our free ski shuttles and on-site ski and snowboard rental, try your luck in the Grand Lodge Casino, schedule a spa day at Stillwater Spa &amp; Salon, or get out and explore everything that Lake Tahoe has to offer, just steps from our front door.
+Hyatt Hotels Corporation, headquartered in Chicago, is a leading global hospitality company with a portfolio of 13 premier brands. As of December 31, 2016, the Company's portfolio included 698 properties in 56 countries. 
+The Company's purpose to care for people so they can be their best informs its business decisions and growth strategy and is intended to create value for shareholders, build relationships with guests and attract the best colleagues in the industry. 
+</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>http://laketahoe.hyatt.com</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Desert Diamond Casino</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Feather Falls Casino, Lodge &amp; Brewing Co.</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feather Falls Casino, Lodge &amp; Brewing Co. in Oroville, CA is owned by the Mooretown Rancheria of Maidu Indians, a federally recognized tribe of Concow-Maidu people in Butte County, California. We opened our doors on June 11, 1996 and now feature 850 slot machines as well as blackjack &amp; poker tables, a top-rated microbrewery, our Dreamcatcher Custom Grill eatery, a Deli, 2 cocktail lounges, a beautiful Lodge, and an award-winning KOA campground. We’re California’s Best Bet for gaming, dining and entertainment!
+</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>http://featherfallscasino.com/</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Chicago Casino &amp; Poker Rentals</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Chicago Casino &amp; Poker Rentals is Chicago's premier full-service casino event planning company.  We'll help you plan your next authentic Las-Vegas style casino event from casino grade tables and accessories to professional dealers and staff!  We offer a variety of games including poker, blackjack, craps, roulette and slots.  Casino parties are great for fundraisers, corporate events, birthday parties, weddings and more!  Visit our website or call today to request a quote and start planning your next casino party!</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>http://www.chicagopokerparty.com</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Treasure Chest Casino</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The zest of New Orleans infuses the Treasure Chest Casino, and the vibrant atmosphere of famous events and destinations like Las Vegas, the Caribbean and Mardi Gras are reflected throughout the riverboat. Located in the New Orleans suburb of Kenner, Treasure Chest features 24,000 square feet of dockside casino action along Lake Pontchartrain.
+</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>http://www.treasurechest.com</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Delaware Park Casino and Racing</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Delaware Park is a multi-faceted gaming facility offering live seasonal Thoroughbred racing, year-round simulcasting from around the globe, live table games, a 25-table poker room and 20-table dedicated tournament room, nearly 2500 exciting slot machines on two spacious levels, pro football sports parlay betting, Keno, casual and elegant dining.  Delaware Park is conveniently located minutes south of Wilmington and the Delaware Memorial Bridge and just north of the Maryland state line at Delaware Exit 4B off I95. Lottery agent for the Delaware State Lottery. Must be 21 to play.  For current Career Opportunities visit www.DelawareParkCareers.com</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>http://www.delawarepark.com</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Aces Up Casino Parties</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Aces Up Casino Parties provides high-end casino entertainment to fundraisers, corporate events, and private parties in Northern California. We specialize in just-for-fun mobile casino entertainment and provide an unmatched level of quality and service within our industry. Whether you're looking for craps, roulette, blackjack, poker, or any one of our other casino gaming options, we have exactly what you need to make your event a success.</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>http://www.acesup.com</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>(510) 785-5922</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Lucky Dragon Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Lucky Dragon Hotel &amp; Casino is Las Vegas’ first casino resort designed from the ground up to create an authentic Asian cultural and gaming experience. The resort, located at the north end of the Las Vegas Strip, is scheduled to open late 2016. Features of the property include a nine-story hotel with 203 rooms, of which 22 are suites; 27,500 square feet of casino space with an emphasis on table games including Baccarat and Pai Gow as well as slots, a high limit gaming area known as the Emerald Room and a luxurious VIP gaming parlor; a pool designed to create an oasis garden escape for hotel guests; a spa with four treatment rooms including reflexology; an indoor-outdoor Tea Garden featuring an extensive list of tea curated by Las Vegas’ only tea sommelier; five Asian-inspired restaurant concepts; and staff and signage to accommodate guests from throughout Asia as well as English-speaking guests.</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>http://www.luckydragonlv.com</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Ruidoso Downs Race Track and Casino</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ever since the first race was run at Ruidoso Downs Race Track in 1947, fast horses were the name of our game... That is, until a new era of racing began with the legalization of slot machine based casino gaming at race tracks.  The Billy the Kid Casino opened in May of 1999 and has since been the place to be for casino fun! 
+Billy the Kid Casino is open daily and houses over 300 slot machines!  Racing in the mountains takes place annually from Memorial Day Weekend to Labor Day Weekend.</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>http://www.raceruidoso.com</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>5753784431</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Blue Lake Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Blue Lake Casino &amp; Hotel offers the premier entertainment experience on the Redwood Coast. Located in the heart of Humboldt County near Arcata, CA, Eureka, CA, and McKinleyville, CA, we provide luxury hotel accommodations, 4 restaurant choices, over 800 slot machines, 15 table games, and the most reasonable fuel prices in Redwood Country.</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>http://www.bluelakecasino.com</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>8772522946</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>South Point Hotel, Casino &amp; Spa</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>South Point Hotel, Casino &amp; Spa</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>https://gc.synxis.com/?Hotel=11548&amp;Src=ResBtn_Top</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>WinnaVegas Casino Resort</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>WinnaVegas is Siouxland's number one destination for fun and excitement! 27 years and still going strong! Win big at over 750 slot and video poker machines. Try your luck at one of the live poker, Blackjack, and Craps tables. Get ready to yell, "BINGO!"​ because WinnaVegas is the best place around for some lively Bingo. WinnaVegas has great live entertainment in the Event Center and Lounge Bar. No gambling on an empty stomach with the tasty all-you-can-eat buffet. If all that isn't enough, signup or play to win one of many life-changing cash giveaways.</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>http://www.winnavegas.com</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>1-800-468-9466</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Prairie Flower Casino</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Located just south of the Omaha airport, Abbott Drive &amp; Avenue H in Carter Lake, IA.  Prairie Flower Casino is owned and operated by the Ponca Tribe of Nebraska.
+We are proud of our Mission:
+As diverse and caring allies of the Ponca Tribe of Nebraska, the Prairie Flower Casino team continually focuses on generating revenue to improve our communities.
+We embrace this as our WHY, because what we do fuels a Nation.
+</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>http://www.prairieflowercasino.com/</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Silver Slipper Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Silver Slipper Casino Hotel is a hospitality company based out of 5000 S Beach Blvd, Bay St. Louis, Mississippi, United States.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>http://www.silverslipper-ms.com</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2284692777</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tortoise Rock Casino</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Tortoise Rock Casino is a gambling &amp; casinos company based out of 73829 Baseline Rd, Twentynine Palms, California, United States.</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>http://www.tortoiserockcasino.com/</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Bronco Billy's Casino and Hotel</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Welcome to Bronco Billy’s! We are your #1 stop for all of the fun in Cripple Creek. We offer fun, food, and fortune every day for the serious gamer, or let us be your first introduction to what a True Colorado Style Casino is.
+We have three casinos for your gaming pleasure: Bronco Billy’s, Billy’s, and ONLY Christmas Casino in Colorado! At each location, enjoy video poker and 800 of the latest slot machines, with a few retro ones thrown in for a well-rounded gaming experience. We have FREE Slot Tournaments EVERY DAY, and lots of JACKPOTS!
+Introducing Mile High Rewards, the most lucrative Player's Club in Colorado! We have upgraded our Player's system so that you can get even more rewards and earning Points has never been easier! Our customers can enjoy bonuses and perks faster than any other casino. 
+Thanks to the loyalty of our players, we were voted “BEST CASINO” 7 years in a row with the Colorado Springs Gazette and 4 years in a row the Colorado Springs Independent!  Stop in to see why we still have players from day 1!</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>http://www.broncobillyscasino.com</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>719-689-2142</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>El Cortez Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>The El Cortez is the longest continuously-running hotel and casino in Las Vegas. One of the last remaining family-run casinos, we’re unburdened by the trappings and constraints of corporate ownership. Since 1941, we have been a part of this neighborhood, and our neighborhood is a part of us. You can see it in the smile of a bartender and hear it in the jingle of one of our classic coin slots.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>http://www.elcortezhotelcasino.com</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Ocean Downs Casino</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Welcome to the Ocean Downs Casino, where we are committed to offering our guests a fun and entertaining gaming experience. We pride ourselves in providing each and every guest with a truly outstanding and memorable experience.</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>http://www.oceandowns.com/</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Buffalo Run Casino &amp; Resort</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Buffalo Run Casino &amp; Resort is a hospitality company based out of 1000 Buffalo Run Boulevard Miami, Oklahoma, United States.</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>https://buffalorun.com/</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>918-542-7140 2523</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Bally's Dover Casino Resort</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100% smoke-free gaming, slots, table games, PLUS a hotel, fabulous dining options &amp; shopping outlets. </t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>https://www.ballysdover.com</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Circus Circus Las Vegas Hotel and Casino</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Circus Circus Las Vegas Hotel and Casino is a hospitality company based out of 2880 S LAS VEGAS BLVD, Las Vegas, Nevada, United States.</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>https://www.circuscircus.com/home</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>21 Fun Casino Party</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>21 Fun Casino Parties and Entertainment offers full service casino parties. Let 21 Fun bring the fun and excitement of Las Vegas to your next event with a casino party or casino event. Everyone loves the click of the roulette ball as it bounces on the wheel, and the shouts of the dice players at the craps table and the jubilant cry of “Blackjack!” Casino games get your guests involved in the action. And 21 Fun makes hosting a winning casino event easy.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>http://www.21fun.com</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>415-564-2121</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Ace Casino Event</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Give your guests an opportunity to enjoy playing casino games without the risk or leaving the great State of Texas.
+We provide Casino Night's for Corporate Events, Philanthropy, Birthdays, Bachelor or Bachelorette parties, HOA or ANY Special Occasion! Discounts apply to Midweek and Afternoon Parties.</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>http://www.acecasinoevent.com</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2107427223</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Fitzgeralds Tunica Casino</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Irish-themed casino located on the Mississippi River.</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>http://www.fitzgeraldstunica.com</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>6623635825</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Zia Park Casino</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>About US
+Zia Park Casino, Hotel &amp; Racetrack offers a variety of entertainment options including 750 of the hottest slots, the newest electronic table games, casual and fine dining options, live racing in the fall and simulcast racing year round all just mere steps away from our super comfortable 154 room hotel.
+Whenever you play your favorite slots, be sure to use your Marquee Rewards® card.  It’s your key to earning great benefits.  For your dining pleasure, Zia Park Casino, Hotel &amp; Racetrack offers an array of choices from fine dining at the Centennial Steakhouse, to a quick bite at The Turf Club Restaurant or the Starting Gate Bar &amp; Grill. Plus, catch all your favorite big-time sports action on our flat screen TVs.
+Zia Park Casino, Hotel &amp; Racetrack is one of many properties owned and operated by Penn National Gaming, Inc., the nation’s third largest gaming company. For more information on Penn National Gaming, Inc., visit www.pngaming.com.</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>http://www.ziaparkcasino.com</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Harrington Raceway and Casino</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Harrington Raceway &amp; Casino is a 'racino'​ comfortably located in the center of Delaware on the southern city limits of Harrington, Delaware, 25 minutes south of Dover. Our location is an easy half-hour commute from Delaware's beach resort areas. 
+We have over 1,700 slot machines, a full range of table games, simulcast horse race wagering from around the world, live harness racing on our half-mile track, and sports betting. In addition, we promote and host concerts and entertainment revues. Our customers can enjoy a drink and listen to the best local bands at Bonz Lounge or on the Patio during the summer months, or in the Gold Room during cooler times.
+We offer a wide variety of culinary options including our award winning Buffet, a Cafe for casual dining, Murphy's Sports bar, Bolo's carved meat sandwich counter and fine dining at Bonz Restaurant.
+Whether you are conducting a business function, hosting a party or celebrating a special occasion, our catering can accommodate gatherings of up to 1,000, or we can bring the party to you, while taking care of everything from the plates to the grapes, ensuring the highest level of flexibility, service and hospitality.</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>http://harringtonraceway.com</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Century Casino and Hotel Cripple Creek</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Century Casino Cripple Creek is a company based out of 200-220 E Bennett Ave, Cripple Creek, Colorado, United States.</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>http://www.cnty.com/cripple-creek</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Empire Casino Parties</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empire is Utah's preferred producer of casino parties!
+Here is why: 
+Empire Casino Parties was started by a group of seasoned event planners with many years of experience planning events for some of the largest companies in the world.  They saw an opportunity in Utah to bring a higher end casino party experience than was currently available.  When you hire Empire, you get:
+- The highest casino quality LED lit tables in Utah
+- Experienced and fun dealers that dress in tuxedos and teach the games in a fun way
+- A track record of proven excellence in the event industry
+- A reputation of being the best product and a good value for your high end experience.
+Our goal is to make you feel like you are in a high end Monte Carlo casino while at the same time focusing on entertaining you and your guests.
+</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>http://www.EmpireCasinoParties.com</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Vegas 888 Casino Parties</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Vegas 888 Casino Parties is the Bay Area's premier casino party company. We will work with you every step of the way from planning to execution of your event. We will listen to understand your needs and your budget so you and your guests have a fun and pleasant experience with us. Call us, email us, or submit a quote to begin planning your unforgettable party! 
+Vegas 888 Casino Parties serves locations from South California to the northern borders of California. We specialize in fundraisers, private parties, hotel events, trade shows, and company special occasions.</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>http://www.vegas888casinoparties.com</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Grand Island Casino Resort</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Project pending license approval.
+The hotel and casino complex will be a destination for many throughout the state. It will include a 37,000 sqft casino game floor with 650 slot machines and 20 table games, a sports book, 4 restaurants inclusive a rooftop dining experience, a show lounge and sports bar, a 116 room boutique hotel, a salon and spa, gift shop, and indoor and outdoor pool with an expansive deck, and a 400 stall parking garage. The project will provide a seamless connection to the existing grandstand at the horse track while also providing great views of the state fairgrounds on the west and the horse races on the east, becoming an entertainment hub for all elements of Fonner Park.</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>https://www.grandislandresort.com/index.html</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Legends Bay Casino</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Legends Bay Casino will bring next-level gaming, dining, and entertainment experiences to Northern Nevada; showcasing the latest slots, video poker, table games, a state-of-the-art sports book, and original dining and bar concepts. Seamlessly integrated into The Outlets at Legends shopping center, adjacent to the Sparks Marina, guests can look forward to an all-encompassing gaming and retail experience that will be sure to excite local residents and visitors to the region.</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>https://legendsbaycasino.com/</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Golden Eagle Casino</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Native American Casino in Horton, KS with approximately 800 slots along with blackjack, craps, roulette, poker, and bingo.  Dine at the Dream Catcher Buffet, Jackpot Deli, or Plum Creek and enjoy the national entertainment featured periodically in the Event Center.</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>http://goldeneaglecasino.com</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Full House Casino Events</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Full House Casino Events is the premiere casino party rental company in the San Francisco Bay area. From our locations in the SF Bay Area, Los Angeles/Orange County, New York/New Jersey and Texas we supply you with the best quality casino table rentals. We have everything you need for a successful casino party, including casino tables, dealers/accessories and Photobooths. We continually work to reduce our overhead to bring our customers the finest casino equipment at the most affordable rates possible. Contact us for assistance in creating a casino party that your guests will never forget.
+415-308-1995
+dustin@fhcevents.com</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>http://www.fhcevents.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>JamesDugan Casino Marketing</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>JamesDugan Casino Marketing has unique and specific expertise in developing effective marketing strategies designed to achieve your casino’s goals. We uncover innovative solutions to connect your guests to your brand, and we deliver tangible results that positively affect your coin-in, revenue and profitability.
+From branding and strategy to promotion development and execution, when you partner with JamesDugan Casino Marketing, you’re partnering with a successful, industry-respected, Native American casino marketing and advertising firm that understands and respects your unique industry.
+Our Products &amp; Services include: 
+*Marketing and Native American casino strategy solutions
+*Research 
+*Complete video/audio production 
+*Television production
+*Web design and development
+*Social media and digital marketing
+*Graphic design
+*Public relations</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>http://jamesdugancasinomarketing.com/</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>California Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>The hospitality of the Hawaiian Islands will flower during your visit to the California Hotel Casino. We like to say "Aloha"​ is spoken fluently here, and our guests enjoy many Hawaiian touches, ranging from dining delicacies such as oxtail soup to the colorful decor reminiscent of the islands'​ lush, tropical beauty.</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>http://thecal.com</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>On the Go Casino Parties</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>On the Go Casino®  Inc. provides full service casino parties, casino party entertainment, casino fundraisers, casino rentals and casino night events for corporate, private and charity events in Phoenix and Tucson Arizona. We have over 10 years of experience providing top quality, exciting, casino parties and casino party entertainment. We offer exciting Las Vegas style casino parties and poker events using only the highest quality casino equipment and fun,  friendly dealers for any occasion. What happens in Vegas, we bring to you! 
+On the Go Casino®  Inc.  creates custom entertainment and casino party packages on an individual basis, and we can adjust any package to suit your needs.
+Our professional staff takes pride in our experience and has the expertise to make your event a huge success!.
+On the Go Casino®  Inc. brings Vegas-style casino entertainment and exciting fun to your location, whether it's your corporate office, a hotel or resort, a rental location, store or even your home!
+On the Go Casino®  Inc. specializes in casino parties for:
+◦ Corporate &amp; Team Building events
+◦ Corporate Client and Office Parties
+◦ Customer / Employee Appreciation Night
+◦ Fundraisers
+◦ Casino Cocktail Parties
+◦ Birthday Parties
+◦ Holiday Parties
+◦ Poker Nights
+On the Go Casino®  Inc. offers all the classic casino games:
+■ Blackjack
+■ Roulette
+■ Craps
+■ Texas Hold'em Poker
+■ Three Card Poker
+■ Let it Ride
+■ Pai Gow
+■ Bingo</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>http://www.onthegocasino.com</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Amelia Belle Casino</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nestled between Morgan City and Houma, the Amelia Belle brings casino excitement to the Louisiana Bayou. With more than 800 slot machines and 15 table games, Amelia Belle offers the best in gaming entertainment served with a Cajun flair.
+</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>http://www.ameliabellecasino.com</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>US Poker and Casino Parties</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>U.S. Poker &amp; Casino Parties is THE leading provider of high-quality casino themed party packages and more to enhance any type of event including corporate events, team-building, special occasions, celebrations, fundraisers, and more.
+We are proud to offer a large variety of interactive entertainment options in addition to our popular casino parties. From dazzling magicians, outrageous comedians, photo booths, DJs and bands, cigar rollers, impersonators, and more....we guarantee to make your event unique &amp; MEMORABLE!  
+Contact us today at (630) 422-1811 or visit https://www.uspokercasinoparties.com/ to learn more about how we can provide all of the magic you need for your next gathering to really WOW your guests and create an unforgettable experience.
+Click here to watch and learn more: https://www.youtube.com/watch?v=rsKUHhhju4E</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>https://www.uspokercasinoparties.com/</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Hialeah Park Racing &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hialeah Park Racing &amp; Casino is eternal, magnificent and historic with a state of the art casino housing slots &amp; poker tables &amp; room for commercial development. The future of this historic property is even more exciting. Plans are underway for a comprehensive development that supports the rich tradition and revitalization of Hialeah Park.  The complete restoration of existing amenities and buildings and the development of new entertainment experiences, also includes a state of the art casino – housing 882 slots and 33 poker tables, a full service hotel, a movie theater, and the creation of an outlet shopping village.  </t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>http://www.hialeahpark.com</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dharamraz Casino Reviews </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Dharamraz is the most reputable, safest and unbiased review guide for online casinos. We are dedicated to providing fantastic bonuses, best casino games, fast payouts and more.</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>https://www.dharamraz.com/</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Cannery Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Since its 2003 opening in the heart of North Las Vegas, Cannery Casino Hotel has become the preferred choice for local and regional residents seeking gaming fun, comfortable accommodations, superb dining, and exhilarating entertainment. Situated mere minutes off Interstate 15, the stunning entertainment complex spreads over 28 acres and features 72,000-square-feet of gaming space, restaurants, and a wealth of other amenities. </t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>http://www.cannerycasino.com</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Maryland Live Casino</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Maryland Live Casino is a performing arts company based out of 7002 ARUNDEL MILLS CIR, Hanover, Maryland, United States.</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Commonwealth Casino Commission</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>As the casino gaming regulatory agency of the Commonwealth of Northern Mariana Islands (CNMI)'s Third Senatorial District, the Commonwealth Casino Commission ("CCC"​) takes the helm of the Saipan's casino gaming industry and governs through its strict regulatory framework. The objectives of the CCC are to ensure the proper gaming revenue reporting from the CCC licensees, prevent unlicensed persons from sharing in casino profits, protect against fraud, protect the integrity of casino games, and monitor the financial viability of the CCC licensees.</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>http://www.cnmicasinocommission.com</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>1(670)233-1857</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Resorts Casino Tunica</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>A PROUD MARQUEE REWARDS CASINO
+At Resorts Casino Tunica, a spacious 35,000-square-foot casino floor filled with your favorite games is just the beginning of your premier gaming getaway. The casino stage lights up the night with the greatest tunes in town, while each of Resorts’ three restaurants fills you up with the best in burgers, steaks and buffet-style dining! And when you decide to call it a night, Resorts Casino Tunica has over 200 premier hotel rooms, so you can rest up for another action-packed day.</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>http://resortstunica.com</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Tropicana Casino and Resort</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Tropicana Casino and Resort is a hospital &amp; health care company based out of 2831 Boardwalk, Atlantic City, NJ, United States.
+https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>http://tropicana.net/</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>WinStar World Casino and Resort</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>WinStar World Casino and Resort is a company based out of 777 CASINO AVE, Thackerville, Oklahoma, United States.</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Railroad Pass Hotel, Casino &amp; Travel Center</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The casino opened on August 1, 1931. Railroad Pass Club was the third casino licensed in the state of Nevada and holds license number 4 under its latest name.
+Bob Verchota purchased the property in 1975.[8] In 1985, Verchota sold it to Michael Ensign, William Richardson, and David Belding, owners of the nearby Gold Strike Casino.[8][9] Railroad Pass became part of their company, Gold Strike Resorts.[10] Subsequently it became part of Circus Circus Enterprises (later Mandalay Resort Group), which purchased Gold Strike Resorts in 1995,[11] and then MGM Mirage (later MGM Resorts International), which acquired Mandalay in 2005.
+In September 2014, MGM agreed to sell Railroad Pass to Joseph DeSimone, a Henderson-based real estate broker and developer. The sale was completed in April 2015, with Marcus Suan assuming operation of the casino while Joseph DeSimone pursued a gaming license.
+Mr. DeSimone was able to utilize his 24 years of experience in development and business to rennovate the Railroad Pass Casino &amp; Hotel. The property now has a fresh look, new games, new menus and a new exciting Culture! </t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>https://www.railroadpass.com/</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Spirit Lake Casino &amp; Resort</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>A true destination casino &amp; resort</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>http://spiritlakecasino.com</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>U.S. Casino &amp; Poker Rentals LLC</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>U.S. Casino Rentals is a full-service casino event provider with a national reputation for superb quality and customer service. We are happy to meet with you at the location of your choice to discuss the logistics of your event and ensure a memorable experience for everyone involved.</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>http://uscasinorentals.com</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Premier Casino Events Inc.</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>We create high quality casino experiences in ballrooms, banquet facilities, your warehouse, or your family room.  Casino grade games, fun, exciting dealers, music, lights and theme decor.  For any occasion where mixing, mingling, team building, fun and memories are required!  For variety, we offer Night at the Races with DVD horse races, NASCAR theme parties with our Pit Stop Challenge!  Every event is customized for your specific goals, budget, and space.</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>http://www.winningparty.com</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Ocean Downs Casino</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Welcome to the Casino at Ocean Downs, where we are committed to offering our guests a fun and entertaining gaming experience. With over 34,000 square feet of gaming space, and 800 slot machines.
+Our entire team is extremely excited about the latest addition of slot machines and we are already planning for a variety of great promotions and events. 
+We pride ourselves in providing each and every guest with a truly outstanding and memorable experience.</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>http://www.oceandowns.com</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Atomic Casino Parties</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Planning your next big party or event? Looking for a fun idea or theme for your holiday or birthday party? Want to add some excitement to your company party or corporate event? Let one of our casino party experts help you plan a memorable event that your guests will be talking about for days to come!
+Atomic Casino Parties creates a realistic casino night atmosphere where casino party attendees have lots of fun while losing no real money. It is a chance of a lifetime to play all of the casino games, be taught by professional dealers and not lose a "real" penny.  We can assist you with every detail from beginning to end to ensure you have a fun, exciting, and successful event!  But remember, all of our parties are custom fitted to YOUR needs and desires. Whether you want a complete party with dealers or if you just want one blackjack table with one dealer, we can help you.</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>http://www.atomiccasinoparties.com</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>The Stables Casino</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>The Stables Casino located in Miami, Oklahoma.</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>http://www.thestablescasino.com</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Global Casino Club &amp; LuxeBet</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>We are the premier representatives for resort and casino destinations worldwide. Our company is comprised of resourceful professionals with a wealth of experience and expertise in the gaming industry. 
+Our goal is to provide you unparalleled service with the highest possible level of quality and integrity. We represent hundreds of world class casinos and resort worldwide, including 15 Major Cruise Lines. We negotiate on our players behalf -betting limits, discounts on losses, and we work hard to maximize all the comps available.
+While on a trip, our VIPs receive the same level of attention, service, exclusivity and comps one expects from an on-property casino host. But instead of juggling relationships with multiple hosts at different properties, we take care of everything. Any casino. Any Destination. Any time.</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Route 66 Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At Route 66 Casino Hotel, employees are treated like guests and have the chance to be recognized with:
+    Employee Appreciation Events
+    Super Stories Rewards
+    Health and Wellness Programs
+    Discounts for Gym Memberships
+Plus, employees receive a comprehensive benefits package that includes:
+    Medical, Dental and Vision Plans
+    Paid Time Off (PTO) for Full-time AND Part-time Employees
+    On-site Employee Dining Rooms with Discounted Meals
+    Company Provided Uniforms
+    Ongoing Skills Training and Career Development
+    Employer and Voluntary Life Insurance
+    Employee Assistance Program
+    Lucrative 401K Plan with Company Match
+For more information please contact the Human Resources department at 505.352.7900.
+</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>https://www.rt66casino.com/</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Naskila Casino</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>The Luckiest Spot in Texas featuring nearly 800 class II electronic gaming machines, 2 restaurants and 24 hours of excitement</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>http://www.naskila.com</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>936-563-1600</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Century Casino &amp; Hotel Central City</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Century Casino &amp; Hotel Central City</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>https://www.cnty.com/central-city</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>303-582-1930</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Evangeline Downs Racetrack &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Evangeline Downs Racetrack &amp; Casino is located in the heart of Cajun country in south central Louisiana. With more than 1,200 slot machines, a full-service FanDuel Sportsbook, and a packed racing calendar, Evangeline Downs is Close to Home, Far From Expected!</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>https://www.evangelinedowns.com/</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>866-472-2466</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>JENA CHOCTAW PINES CASINO</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Jena Choctaw Pines Casino is the only Class II casino in the state of Louisiana. Located in the heart of CENLA we are a short drive to Your Place for Fun!</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>http://jenachoctawpinescasino.com</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Win-River Resort &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Win-River Resort &amp; Casino is Northern California's premier gaming establishment.</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>http://winriver.com</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>1 530 243 3377</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>The Black Hawk Casino</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>At The Black Hawk Casino, our goal is a rather simple one, to have the friendliest, most helpful staff, and to provide our customers with a best in class gaming experience. We are constantly looking for new ways to improve our customer’s experience. In the past two years alone, we have completely remodeled the exterior of our facility, installed new carpet, dramatically upgraded our heating and cooling system, and added a state-of-the-art smoke filtration system.</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>http://www.theblackhawkcasino.com</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Fortune Valley Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Fortune Valley Hotel and Casino is the place to gamble (eat, sleep and play) in Central City, Colorado, above Black Hawk. With the most comps in Colorado, and 118 3-diamond hotel rooms, why visit any other casino? It's a great place to stay in scenic Colorado. Take I70 and the Central City Parkway from Denver.</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>http://www.fortunevalleycasino.com</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Par-A-Dice Hotel Casino</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Docked upon the Illinois River, the Par-A-Dice Hotel Casino couples Las Vegas excitement with the finest central Illinois hospitality. Four decks offer a wide selection of new slot and table games, as well as old favorites. Furthermore, our award-winning hotel and five-star restaurant make the Par-A-Dice an excellent choice for any special occasion.</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>http://www.paradicecasino.com</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Magnolia Bluffs Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Magnolia Bluffs Casino is a full-service gaming facility with approx. 500 of the newest slot machines, 12 table games including live craps and roulette, poker room, sportsbook and multiple dining venues. The nearby hotel boasts 141 rooms, banquet facility and a full suite of amenities including a bar, breakfast, salt water pool featuring a seating area with a fire pit and more.
+Located on the Mississippi River in historic downtown Natchez, Magnolia Bluffs Casino sits on the site of the former Learneds Mill, a saw mill that opened in 1828 and operated until 1962. The casino opened its doors on Dec 19, 2012.
+The facility is owned and operated by Premier Gaming Group, Union, KY.</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>http://magnoliabluffs.com</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>601-235-0045</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>ROI, Inc. - Casino Marketing</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>ROI is a casino-focused marketing firm. We've spent the last 10-years building relationships throughout the gaming industry by assisting our clients with improving profitability. As a company, we offer every relevant service within the marketing discipline, from database to merchandising. But due to our diverse history and subsequent experience, we also excel in other areas such as operations, training and development, technology, finance and human resources. We accomplish critical ROI increases for our clients via calculated, data-driven strategies that complement internal and market situations, and are further enhanced by our unique client and data experiences.</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>http://www.ROIsolutionsInc.com</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Carson Nugget Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Carson Nugget Casino Hotel is located in Carson City, Nevada, United States and is the oldest continually operating casino in Carson City.</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>http://www.ccnugget.com</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Sheraton Puerto Rico Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Continuously ranked between the top hotels in San Juan, the Sheraton Puerto Rico Hotel &amp; Casino is recognized as a family-friendly urban resort and known as the premier meetings and conventions hotel in San Juan. Perfectly positioned at the Convention Center District, just steps away from Distrito T-Mobile, Puerto Rico’s newest entertainment complex of happenings, dining, and socializing.  Sheraton guests can also take advantage of the complimentary shuttle to the nearby beach and historic Old San Juan, among many other features that makes this hotel the best place to stay. The property is completing a full renovation, inspired by the natural landscape, essence and beauty of the island. Renovation includes its 503 Guest rooms, meeting spaces, public areas and restaurant and bars are also getting a refreshing transformation, which should be complete by early next year. The redesign is also part of the new Sheraton look and feel including co-working space in the lobby and a bar that transitions from a coffee spot during the day to a popular cocktail venue by evening.
+</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>http://sheratonpuertoricohc.com</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>787-993-3500</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>The Party Team / Team Casino Inc</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Casino Parties
+Texas Hold'em Tournaments
+DJ / Karaoke
+Night at the Derby
+Giant Screen Wii
+Aracde / Sports Lounge Rentals
+Game Shows - Family Feud, Jeopardy
+Casino Nights
+The best entertainment company in the Northwest with offices in Seattle, Portland, Eugene, Bend, Boise.  Tournament quality equipment and fun friendly staff will make your event a blast!</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>http://www.teamcasino.net</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>5037262121</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Baldini's Sports Casino</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Baldini's Sports Casino offers slot machines and dining.</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>http://www.baldinissports.com</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>CrossWinds Casino</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>#CrossWindsCasino 🎰 So Close. So Fun! So Much More!</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>http://crosswindscasino.com</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>3167682000</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Lake of the Torches Resort Casino</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>For over 20 years, the Lake of the Torches Resort Casino has been the premier gaming, dining and entertainment destination to call your home away from home.
+Situated on the shores of Pokegama Lake and nestled in Wisconsin’s Northwoods, Lake of the Torches has the feel of a classic Northern retreat and reflects its Ojibwe culture and heritage.
+Lake of the Torches Resort Casino is proudly owned by the Lac du Flambeau Band of Lake Superior Chippewa Indians.</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>http://www.lakeofthetorches.com/</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Casino Training Experts, LLC</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>CTE specializes in Building Casino Management Dream Teams utilizing its proprietary 3 Pillars of Success Business Model.  
+As President of CTE, I am committed to building tribal casino Management Dream Teams by consulting and training tribal members showing management potential with the management skills, processes and techniques to be successful in the tribal casino business.
+Implement my proprietary Building Casino Management Dream Team  Pillars of Success Business Model
+and EXPECT:
+     Increased Profits;
+     Improved Teamwork;
+     Higher Morale;
+     Reduced Turnover;
+     Consistent Casino Goals, Objectives and Expectations throughout the organization.
+Since having and recovering well from a major stroke in June of 2013, I am committed to passing on my management skills, processes and techniques that have worked for me in a variety of industries  over the years along with a little wisdom  to younger managers.  No theory here, just processes and techniques that Work!
+Contact me for details and to arrange for my services. 
+rpowers@CasinoTrainingExperts.com   918-787-2944</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>http://www.CasinoTrainingExperts.com</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>The Gilpin Casino</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Fabulous food, friendly staff and 24-hour gaming excitement – The Gilpin’s Got It! Winning comes easy with our non-stop casino action and the most rewarding Winners Club in Colorado. Our Sudden Strike Jackpots could hit any time, any spin. Join in exciting table game action in the Winners Circle or play the newest slot machines. Plus, there’s always something new happening with The Gilpin’s monthly promotions!</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>http://www.thegilpincasino.com</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Four Queens Hotel Casino</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Four Queens Hotel Casino is a hospitality company based out of United States.</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>http://fourqueens.com</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Wind River Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Wind River Hotel &amp; Casino is a hospitality company based out of United States.</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>http://windriverhotelcasino.com</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Wild Rose Casino &amp; Hotel - Clinton, Emmetsburg, Jefferson</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With an emphasis on small-town friendliness and the allure of big city fun, Wild Rose Casinos &amp; Hotels has carved a niche in Iowa gaming for more than a decade.
+Wild Rose is located in Clinton, Emmetsburg and Jefferson, IA with it's corporate office located in Des Moines, IA. 
+</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>https://wildroseresorts.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Nooksack Northwood Casino</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Nooksack Northwood Casino opened in 2007 in Lynden, WA and is owned by the Nooksack Indian Tribe.  
+Northwood Casino has a better way to play, every day! Whether you like the fun and excitement of Slot Machines, or the fast action and skill of Table Games, we’ve got you covered. Choose from your favorite slot titles, or a variety of exciting games like Craps, Blackjack, Ultimate Texas Hold’em, Spanish 21, Roulette, and more. All table games are available to play right now, with others coming soon! Table Games open daily at 2pm.</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>http://northwoodcasino.com</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>(360) 734-5101</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Fort McDowell Casino</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>http://www.fortmcdowellcasino.com</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Riverside Casino</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Riverside Casino in Tukwila offers the gaming thrills of Las Vegas and the taste of Asia with authentic Chinese and Vietnamese cuisine. Riverside Casino offers fifteen table games, pull tabs, $300 betting limits and large progressive jackpots. Located conveniently off of I-5 and I-405 on Interurban Avenue.</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>http://www.riversidecasinotukwila.com</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>BELLE OF BATON ROUGE CASINO &amp; HOTEL</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>BELLE OF BATON ROUGE CASINO is a company based out of 103 FRANCE ST, BATON ROUGE, Louisiana, United States.</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>https://belleofbatonrouge.com</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Ute Mountain Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ute Mountain Casino Hotel is a property of the Ute Mountain Ute Tribe.  Located in Towaoc, Colorado it’s the state’s first tribal gaming facility and home of the newest and hottest slots in the Four Corners Area. Our players not only enjoy winning more, but they also love our Southwestern hospitality, friendly faces, great food, and fun!  Groups welcome!  Connect with us on Facebook and at: 
+www.utemountaincasino.com                               
+1-800-258-8007
+</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>https://utemountaincasino.com</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1-800-258-8007</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>D&amp;E Casino Services, LLC</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>We handle every detail—from Casino games,Texas Holdem Tournaments,Wheel of Fortune Rentals  and hire well qualified dealers to teach your guest to play.  We also handle DJs and karaoke…to seating, tables, and all the "trimmings"…to professional waitstaff and bartenders who'll mix your favorite cocktails…to hosts, hostesses, or "celebrity" entertainment.  Casino-theme parties are always a hit—and you can be, too, with a little help from D&amp;E Casino Services.  We're the experts, with 20 years' experience bringing Vegas-style fun to Southern California. Let us bring some fun to you!</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>http://www.decasino.net</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Eastside Cannery Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Conveniently located just off Boulder Highway and only 7 miles from McCarran International Airport, Eastside Cannery Casino &amp; Hotel has become the favorite of area residents for gaming fun, dining value, and star-studded entertainment. With 65,000-square-feet of gaming space, restaurants, and amenities, Eastside Cannery is a world of thrills, delights, and comfort.</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>http://www.eastsidecannery.com</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Horseshoe Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Horseshoe Casino Hotel is a hospitality company based out of 711 Horseshoe Boulevard, Bossier City, Louisiana, United States.</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>http://horseshoebossiercity.com</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Rising Star Casino</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Rising Star Casino is a hospitality company based out of 777 RISING STAR DR, Rising Sun, Indiana, United States.</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>http://risingstarcasino.com</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Bear River Casino Resort</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>blah</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Diamond Casino Products</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Diamond Casino Products, founded in 1992, manufactures and distributes patented chip and plastic playing card cleaning machines and environmentally-safe cleaning solutions that clean, sanitize and remove germs and malodors from poker chips, playing cards, and felt table tops.
+Our value proposition why casinos should clean poker chips versus buying new ones is simple, why pay $0.90 - $1.25 per chip new when casino can bring back to life current ones for less than $ 0.04 cents each?  This saves valuable money and allows casinos to reinvest capital into other revenue generating initiatives.  
+We also own Zip’s Card Cleaning System, which has been around since 1982. Our strong reputation in the gaming industry is due to the quality of our products and the service we provide.
+Diamond Casino Products is based in the U.S.A. but services casinos and select distributors globally including Europe, South America, South Africa, Caribbean Islands, Asia, Canada, and throughout the United States.
+To learn more, contact Tom Hardwick at 913.481.4108 or via email; tom@diamondcasinoproducts.com</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>http://www.diamondcasinoproducts.com/</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>9134814108</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Fourwinds Casino Resort</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Fourwinds Casino Resort is a hospitality company based out of 11111 Wilson Road, New Buffalo, Michigan, United States.</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>http://fourwindscasinoresort.com</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Oklahoma Casino Reviews (OCR Slots)</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Introducing the captivating world of casino slot influencers, where one rising star is making waves in the realm of online gambling. Meet OCR Slots, an up-and-coming luminary in the world of slot machines and online gaming. With an undeniable passion for the thrilling world of casinos, OCR Slots has built a devoted following through their engaging content, charismatic presence, and deep understanding of the intricacies of slot games. From sharing strategic tips and tricks to showcasing exciting bonus rounds, OCR Slots has become a trusted guide for both seasoned players and newcomers seeking their fortune in the realm of spinning reels. Join us as we delve into the enchanting journey of this burgeoning casino slot influencer, whose magnetic personality and dedication to the craft are sure to leave you eager to explore the exhilarating world of slot machines.</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>https://youtube.com/c/OklahomaCasinoReviews</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>THE HEIGHTS CASINO, INC.</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>THE HEIGHTS CASINO, INC. is a company based out of 75 MONTAGUE STREET, BROOKLYN, New York, United States.</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>http://heightscasino.com</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>7186240810</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>IT Casino Solutions</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>ITCS provides tailored operation management systems and stakeholder reporting We develop modern cloud-based software solutions to meet the unique needs of each casino, card room, or private members organization. Our team of experts is dedicated to delivering innovative technology and unparalleled customer support to enhance efficiency and effectiveness in running your business.</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>http://itcasinosolutions.com</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>888 992 4827</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Black Tie Casino Events</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Black Tie Casino Events is the pre-eminent casino events company in Southern California. We can accommodate parties for as little as 50 people or as many as 5,000 people. From corporate events and conventions to birthday parties and non-profit fundraisers, we are your one-stop shop to deliver the most professional casino event you've ever seen. We are your Casino Concierge!</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>http://www.blacktiecasinoevents.com</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Horseshoe Casino Cincinnati</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Horseshoe Casino Cincinnati is a hospital &amp; health care company based out of 625 Eden Park Dr, Cincinnati, Ohio, United States.</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Prairie Knights Casino $ Resort</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Prairie Knights Casino $ Resort is a gambling &amp; casinos company based out of United States.</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>http://prairieknights.com</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Robinson Rancheria Resort &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Opened in 1989, Robinson Rancheria Resort &amp; Casino is owned and operated by the Robinson Rancheria Band of Pomo Indians.
+Sitting on the beautiful north shore of Clear Lake in Lake County, Robinson Rancheria offers a true resort experience by providing superior comfort guests not only expect, but deserve. With over 300+ slot machines &amp; 800 seat Bingo Hall, and strong amenities.</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>http://www.rrrc.com</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Buffalo Thunder Resort &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Buffalo Thunder Resort &amp; Casino is a hospitality company based out of 30 BUFFALO THUNDER TRL, Santa Fe, New Mexico, United States.</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>White Felt Casino Events</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>White Felt is a full service casino events company. We provide a dependable source for your next event! Let's make memories together.
+Book your casino party today at whitefelt.com</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>https://whitefelt.com</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>8177792055</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Coral Casino Beach and Cabana Club</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Coral Casino Beach and Cabana Club - Official Website</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>http://coralcasinobeachclub.com</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>3108713361</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Wheeling Island Hotel-Casino-Racetrack Jobs</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We're glad you've chosen to consider employment with Wheeling Island Hotel-Casino-Racetrack. Wheeling Island is operated/owned under contract with Gaming and Entertainment. 
+Wheeling Island offers a variety of employment opportunities. All applicants may be required to work weekends, nights and holidays. Excellent guest service and communication skills are required for all positions. There is a minimum age requirement of 21 for all positions on the gaming floor. Wheeling Island offers competitive wages and benefits.
+We can also train you to become a blackjack, roulette, craps or poker dealer.
+</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/WheeligIslandHotelJobs</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>+1 434 225 8996</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>RAMPART CASINO AT THE RESORT</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>RAMPART CASINO AT THE RESORT is a company based out of 221 N Rampart Blvd, Las Vegas, Nevada, United States.</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>http://theresortatsummerlin.com</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Golden Acorn Casino &amp; Travel Center</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>http://www.goldenacorncasino.com</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Hollywood Casino Perryville</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Looking for entertainment? Hollywood Casino Perryville offers Vegas style gaming, music &amp; more with a local, friendly atmosphere. Have fun, check it out!</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>http://hollywoodcasinoperryville.com</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Nooksack River Casino</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Nooksack River Casino is located on Mount Baker Hwy approximately 15 minutes east of Bellingham, WA.</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>http://www.nooksackcasino.com</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>KLA-MO-YA Casino Corp.</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Klamath, Modoc, and Yahooskin Tribes Casino with 300 Vegas-style slots, a Restaurant, and a 74-room Hotel. 
+Visit us online at: klamoyacasino.com
+</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>http://klamoyacasino.com</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>541-783-7529</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>ABC Bartending &amp; Casino School</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>ABC Bartending Nationwide is the premier network known nationally in the industry for its ability to teach and train new bartenders. ABC Bartending Schools are opened across the country and has been placing bartenders nationwide since 1977 with a key location serving the Phoenix, Arizona area. We are also listed with the BBB.
+Bartending? We take pride in our work and present professionalism, dedication, and passion for the industry. We're here to provide a foundation for those who want to earn more in life. Our staff members are working professionals in the field, with experience from local bars and establishments to teach you the ins and outs of the industry. We have updated granite countertops, soda guns, real ice, and equipped with Dinerware's latest POS system. ABC is here to not only provide students with an education, but with help in any aspect so that they may become a professional bartender.
+Ready to be a Casino Dealer? Do you want a fun exciting career making great money working in a casino? Are you tired of your 9-5 job? Are you a people person looking for some real action? Look no further! At ABC, we will teach you how to be a professional dealer. ABC Bartending &amp; Casino School is licensed by the state of Arizona in private postsecondary education – meaning we’re the real deal and our certificates are good all over the world!  Also, all of our instructors have reputable experience and many years dealing at all the local casinos. The best part is that it is affordable and you’ll have a fantastic time doing it.!  We’ve also helped our students land jobs at the local casinos including: Bucky’s, Cliff Castle, Harrah’s Ak-Chin, Vee Quiva, Fort McDowell, Blue Water, and Casino Arizona!
+We would love to hear about your goals and dreams. Take the time to browse our pages and when you're ready, take the next step by contacting us. To schedule a tour, feel free to call 480-777-2333 or email us at info@azbartendingschool.com. or info@abccasinocollege.com</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>http://www.azbartendingschool.com</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Crowne Plaza Hotel at Commerce Casino</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Allow our state of the art, remodeled, hotel to enhance your visit to one of the most famous cities in the world. We offer the highest level of comfort through our outstanding amenities. Enjoy our delicious full-service, on-site restaurant and lounge. You have the option to work or relax at your leisure with convenient in-room dining. Let your body rejoice in our fully equipped health and fitness facilities, which will help keep you energized, and on top of your game.
+The Commerce Casino is at your disposal featuring all of the traditional games, as well as the most Baccarat tables in all of California. Not feeling strong about your poker game? Learn and refine your skills at our Commerce Casino University of Poker.
+Featured Hotel Services:
+•Complimentary Wireless and Wired Internet
+•Complimentary Shuttle Service to Attractions Within a 10-mile Radius
+•Flexible Meeting Room Space
+•On-site Restaurants
+•194 Guest Rooms and Suites
+•Arena Sports Bar and Grill
+•Wood Dragon Restaurant
+•River Bar
+•World-Famous Commerce Casino</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>http://www.cpccla.com</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Max Casino</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Max Casino brings the excitement downtown. Situated in historic downtown Carson City, The Max Casino and Federal hotel is within walking distance of all government buildings and downtown activities!  
+Majestic Lake Tahoe is located 25 minutes from Max Casino! When you choose Max Casino, you’re choosing the best in gaming, accommodating and adventure.</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>https://maxcasinocc.com/</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>775-883-0900</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>1st Jackpot Casino Tunica</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your Closest Bet for Fun!
+1st Jackpot Casino features the newest slots with hundreds of new ways to win with the most popular games. We also feature all of your favorite table games and a Tunica exclusive with Wild Hold 'Em Stud. 1st Jackpot Casino has a generous comp policy for all players who use their Marquee Rewards card – just ask one of our friendly casino cashiers for more details
+</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>http://www.1stjackpot.com/</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Black Mesa Casino</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Enjoy a friendly, comfortable atmosphere at one of the best little casinos in New Mexico! Black Mesa Casino is a place where tradition, culture and good times come together. Not too big and not too small, we’re just the right size to provide the fun and entertainment that you want most!</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>https://blackmesacasino.com/</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>5058676711</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Kickapoo Casino Harrah</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Kickapoo Casino features over 600 of the latest and hottest E-Games with a large variety of denominations to choose from. Throughout the gaming floor, you’ll find the newest games available along with a wide array of player favorites.
+If cards are your game, Kickapoo Casino Harrah offers great table games odds and excellent rewards for play. Your seat is waiting at any of the featured table games such as Blackjack, Double Deck Blackjack, Ultimate Texas Hold’em or DJ Wild.
+The Redfork restaurant offers a unique experience by offering a wide range of delicious menu choices and a casual atmosphere with an artistic ambiance.
+The Eaglerock Lounge is the perfect venue for any occasion. When you want to take a break from the casino action, step over to the Eaglerock Lounge where you’ll enjoy a full service bar and wait staff that will serve you the perfect drink every time. Bring your friends and enjoy the big game or fight on any of the flat screens or the massive 133” big screen! Look for upcoming events featuring live bands, entertainers, DJ, karaoke and more.</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>http://www.kickapoo-casino.com</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>405-964-4444</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Saganing Eagles Landing Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Saganing Eagles Landing Casino &amp; Hotel is owned and operated by the Saginaw Chippewa Indian Tribe.</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>http://www.saganing-eagleslanding.com</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>888.732.4537</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Indian Head Casino</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Indian Head Casino is Central Oregons premier location for fun, food, and friends, featuring blackjack, slots, cocktails, and casual dining 24 hours a day, 7 days a week.</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>http://www.indianheadgaming.com</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Caesars Entertainment Horseshoe/Lady Luck Casino</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Hello and welcome to Horseshoe and Lady Luck Casino Hotel. We are a part of the impressive Caesars Entertainment portfolio.  Caesars Brand Story is that in 2020 it came together with Eldorado Resorts Inc to create the largest gaming company in the U.S. Each company brings a rich, storied history that positions us to be the global leader in gaming and hospitality.  It is a story of vision, heart and above all else, family values. 
+Boasting many of the world’s most prestigious gaming brands, including Caesars Palace®, Harrah’s®, Horseshoe®, Eldorado®, Silver Legacy®, Circus Circus®, Reno and Tropicana®, among many others.  
+EMPEROR’s……. your Caesars Career awaits!</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>https://www.caesars.com/</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>3039987821</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>7th Street Casino</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We're WHERE IT'S AT! Try your luck on 600+ slots 24/7! Offering high payouts, 2 bars, a cafe, fun promotions &amp; more! Nestled in the historic section of downtown Kansas City, Kansas and just minutes from hot spots like the Power &amp; Light District and The River Market. </t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>http://www.7th-streetcasino.com/</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>+1 9133713500</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Harrah's Metropolis Casino</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Experience exciting restaurants, entertainment and casinos you will enjoy at Harrah's Metropolis Hotel &amp; Casino in Southern Illinois.</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>https://www.caesars.com/harrahs-metropolis?utm_campaign=GMB&amp;utm_source=google&amp;utm_medium=local&amp;utm_term=HarrahsMetropolis&amp;utm_content=hotel</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>618-524-2628</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Atlantic City Casino Information Security Symposium - AC2IS2</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annual symposium of Greater Atlantic City casino information security leaders.  </t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>https://www.ac2is2.org</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>609-557-7260</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Golden Acorn Casino | Travel Center</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the breathtaking Laguna Mountains off of California’s famous Interstate 8, Golden Acorn Casino and Travel Center has become a beloved destination that never closes. Enjoy the classic casino experience along with great options for food and drink or stop by our Travel Center! Open 24/7 for your traveling needs and service with a smile. 
+Join the thrill and excitement of our updated casino floor which showcases over 350 slot machines! From penny slots, to high-limit machines, we have something to offer for everyone! Check in regularly as we update our slot machines with the latest trending titles to enhance your experience every visit. What are you waiting for? The fun is just a short drive and exit away.
+</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>https://www.goldenacorncasino.com/</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>619-938-6000</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Jamie Casino Injury Attorneys</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Have you been injured in an accident at no fault of your own? Has someone else’s negligence left you suffering serious, life-changing injuries? It’s time to drop the hammer and restore justice by calling Jamie Casino Injury Attorneys. As Savannah’s premier personal injury law firm, Jamie Casino Injury Attorneys is not afraid to go after the greedy corporate bullies who push innocent injury victims around. You deserve compensation for your injuries, and Jamie Casino Injury Attorneys will see to it that you receive every penny to which you are entitled.
+Whether you have been injured in a car accident, by an aggressive dog, or on someone’s hazardous premises, you can rest assured that your injury claim is in good hands at Jamie Casino Injury Attorneys. Their team gives a voice to those who cannot speak for themselves and remains focused on achieving record results for their clients.</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>https://www.jamiecasinoinjuryattorneys.com/</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>(912) 809-5335</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Gold Coast Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Located just minutes from the Las Vegas Strip, Gold Coast offers true locals'​ hospitality as a place where locals and visitors alike can feel at home.</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>http://www.goldcoastcasino.com</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Rain Rock Casino</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Located in beautiful picturesque Yreka, California, Rain Rock Casino is the premier casino destination for Northern California and Southern Oregon gamers. Here It All Begins with YOU! Welcoming staff and service with a smile. We are a player-oriented destination featuring 349 of the latest slots and 8 table games. Rain Rock Restaurant is a diner’s delight featuring our famous $5 burger and delectable dinners. You can rely on our daily meal deals for a tasty treat.  Be sure to quench your thirst at the RR Bar with 12 beers on tap and a fully stocked array of spirits. We are conveniently Located off Interstate 5, Exit 773, Yreka CA.</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>http://rainrockcasino.com</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>1(530) 777-7246</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Chicago Casino Suppliers</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>For over a decade, Chicago Casino Suppliers has proudly produced thousands of Corporate, Charity and Private events throughout the Midwest. Founded with a mission to create the most realistic gaming experience, with over 100 authentic casino tables including BlackJack, Poker, Craps and Roulette options to suit any size party.Let our professionally trained staff bring any room to casino life with expert advice on tournament options as well as themed decor, live entertainment, lighting and technical integrations.</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>http://ChicagoCasinoSuppliers.com</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Fremont Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Located in the heart of the Fremont Street Experience, our friendly team members serve up plenty of gaming action, not to mention delectable, award-winning dining selections and comfortable accommodations.</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>http://www.fremontcasino.com</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Lucky Dog Casino</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Lucky Dog Casino has some of the newest games available paired with excellent service and delicious dining at the Drift.  Monthly live entertainment and unique special events create a comfortable atmosphere for all who visit.  Conveniently located on Hwy 101 and Hwy 106 north of Shelton and south of Hoodsport on the gorgeous Olympic Peninsula of Washington State.</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>https://www.myluckydogcasino.com</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>(360) 877-5656</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>The LINQ Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>The LINQ Hotel &amp; Casino is a Hon./Dr. Nghia Giang Nguyen 1 DMV company based out of 3535 S LAS VEGAS BLVD, Las Vegas, Nevada, United States.</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Vegas X Casino USA- Real money Slots games</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vegas X Casino USA- Real money Slots games. 
+If you are searching for best game place to play slots games to win real money, play with Vegas X Casino USA- Real money Slots games now. WE have so many games and you can win big money just by playing games, and that's all sitting home on couch. </t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/title/tt0381061/</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Bally Technologies</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Founded in 1932, Bally Technologies (NYSE: BYI) provides the global gaming industry with innovative games, table game products, systems, mobile, and iGaming solutions that drive revenue and provide operating efficiencies for gaming operators.
+THE APPEARANCE OF POSTS, ‘LIKES’, ‘SHARES’, COMMENTS, AND OTHER ACTIVITIES BY THIS ACCOUNT DOES NOT CONSTITUTE OFFICIAL ENDORSEMENT ON BEHALF OF BALLY TECHNOLOGIES. BY FOLLOWING THIS ACCOUNT, YOU AGREE TO BE OF LEGAL GAMBLING AGE IN YOUR PLACE OF RESIDENCE.
+KNOW YOUR LIMITS. PLAY RESPONSIBLY. With the philosophy that gaming can be an enjoyable form of entertainment so long as it is not taken to extremes, Bally actively encourages responsible gambling. If you think you might have a gambling problem, we urge you to call the Problem Gambling Hotline toll-free at 800-522-4700 for help. For additional information on problem/responsible gaming, visit the following web sites: National Center for Responsible Gambling at www.ncrg.org; National Council on Problem Gambling at www.ncpgambling.org.</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>http://www.ballytech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Caesars Entertainment, Inc.</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Caesars Entertainment, Inc. is the largest casino-entertainment Company in the U.S. and one of the world's most diversified casino-entertainment providers. Since its beginning in Reno, NV, in 1937, Caesars Entertainment, Inc. has grown through development of new resorts, expansions and acquisitions. Caesars Entertainment, Inc.'s resorts operate primarily under the Caesars®, Harrah's®, Horseshoe®, and Eldorado® brand names. Caesars Entertainment, Inc. offers diversified gaming, entertainment and hospitality amenities, one-of-a-kind destinations, and a full suite of mobile and online gaming and sports betting experiences. All tied to its industry-leading Caesars Rewards loyalty program, the Company focuses on building value with its guests through a unique combination of impeccable service, operational excellence and technology leadership. Caesars is committed to its employees, suppliers, communities and the environment through its PEOPLE PLANET PLAY framework. Know When To Stop Before You Start.® Gambling Problem? Call 1-800-522-4700. For more information, please visit. www.caesars.com/corporate.
+Caesars Entertainment promotes a collaborative culture where accountability, passion, and idea sharing create a foundation for innovation and continuous improvement in the casino entertainment industry. 
+Caesars is always looking for intellectually-curious professionals who are aligned with our values, motivated by meritocracy, and inspired by our commitment to our guests, team members, communities, and environment. Learn what it’s like to join a diverse by design team at Caesars Entertainment and check out our open jobs.</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>http://www.caesars.com/corporate</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Jokers Wild Casino</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jokers Wild - the name says it all - where the fun is non-stop, the games are hot, and our team members greet customers by name. Newcomers become regulars in no time at this cozy casino. For dining and gaming pleasure, Jokers Wild Casino is a winning combination.
+</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>http://www.jokerswildcasino.com</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Mistequa Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Mistequa Casino Hotel is open daily at 8AM. 100% non-smoking. Over 300 gaming machines, live table games, seasonal RV Park, and Hotel opening this year. Jackpots, Food, &amp; FUN! Located north of Spokane on HWY 395.</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>https://mistequa.com/</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Gold Country Casino Resort</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Goldcountrycasino.com is your first and best source for all of the information you’re looking for. From general topics to more of what you would expect to find here, goldcountrycasino.com has it all. We hope you find what you are searching for!</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>http://www.goldcountrycasino.com</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>530-538-4560</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>The Landmark Casino - Deadwood</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Casino | Sportsbook | Bar &amp; Lounge
+A new chapter begins in the historic town of Deadwood, South Dakota for a building that dates back to the Black Hills Gold Rush of the late 1800s. Experience the excitement of Deadwood at The Landmark—the area’s newest casino property, located directly in the historic downtown of Deadwood. Hit a jackpot on one of over 100 games, enjoy a drink with friends, and discover something new. Don’t just “do Deadwood”, make your mark!</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>www.deadwoodlandmark.com</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Rosebud Casino</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Rosebud Casino/ Plaza 83/ Quality Inn is located at the South Dakota/ Nebraska state line on Highway 83, Nine miles north of Valentine.  The Casino offers 250 slot machines on the floor featuring some of the newest games available along with some of your favorites. Table Games has four tables with Blackjack and Carnival games.  Bingo is available in the Event Center to try your hand at. The recently remodeled Rosebud Room serves up a buffet feast nightly &amp; the Stage Left deli satisfies your quick cravings.  The Event Center hosts concerts and special events.  Join one of the weekly promotions for more chances to win.  The Quality Inn hotel has 60 rooms designed for a good night's sleep. Don't forget to fill up at Plaza 83 and pick up some snacks for the ride home.</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>https://rosebudcasino.com</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>800-786-7673</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Bucky's Casino</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Family friendly, non-smoking, Blackjack, Roulette, Craps, Slots, promotions, sweepstakes, restaurant, bar and live music all at Arizona's best casino Bucky's!</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>www.buckyscasino.com</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Kickapoo Casino Shawnee</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Kickapoo Casino features over 300 of the latest and hottest E-Games with a great variety of denominations to choose from. Throughout the gaming floor, you’ll find the newest games available along with a wide array of player favorites.
+he Bar offers a lively hot spot for a casual night out with friends. You can catch the big game while enjoying tasty quick bites as you enjoy the upbeat environment. Plus, The Bar features your favorite drinks and offers great specials monthly.</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>http://www.kickapoo-casino.com</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>405-395-0900</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Shoshone Rose Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WYOMING’S BEST CASINO AND HOTEL DESTINATION
+Our casino and hotel offers visitors an experience to remember. With a variety of new slot machines, Deka Guy Hee restaurant and a stunning hotel with suites, we are your one-stop option to WIN MORE! </t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>https://shoshonerose.com/</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>307-206-7000</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>MGM Resorts International</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>The resorts and casinos of MGM Resorts International™ are some of the most famous in the world. Our 28 destinations are renowned for their winning combination of quality entertainment, luxurious facilities, and exceptional customer service.
+We are actively expanding our presence globally, with potential developments in a number of domestic and international markets. At MGM Resorts International, we are all striving together to deliver an enticing blend of entertainment to every corner of the world.
+Many of our resorts are located in Las Vegas. Las Vegas features three of the largest convention centers in the U.S., spectacular entertainment, attractions, shopping, ​and world-famous resorts. Whether dancing fountains, incredible stage productions, casino action, museums or natural attractions such as Lake Mead, Vegas offers something for everyone. A stroll down our streets takes you around the globe, with recreations like climbing to the top of the Eiffel Tower or taking a Venetian gondola ride. From shimmering resort pools and spa rejuvenation to nonstop nightlife, Las Vegas promises an unforgettable career destination.
+With all of our unique and spectacular resorts and casinos, MGM Resorts International has a world of opportunities for you to discover excitement and rewards as you provide our guests with a wonderful and memorable experience. Take a closer look at our properties. We think you'll find an opportunity that's right for you. The 81,000 global employees of MGM Resorts are proud to be recognized as one of FORTUNE® Magazine’s World’s Most Admired Companies®.
+At MGM Resorts, we know the importance of respecting each other’s differences. We endeavor to embrace and leverage our diversity to achieve best-in-class experiences and cultivate stronger ties with our employees, guests, suppliers and community partners. We are committed to taking strong and principled stands on issues of equality and aim to better unify our world.</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>http://www.mgmresorts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Goldie's Casino</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Experience the thrill of Las Vegas style gaming just minutes from Seattle. From the action of the casino floor to the bar and restaurant, the excitement is endless. 
+Goldie’s Casino has it all – great food, fun and friendly bar/lounge and action packed casino gaming. Located just north of Seattle on Aurora Ave (Hwy 99), Goldie’s Casino is your premier entertainment spot.</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>http://www.goldiescasino.com/</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Gem Casino Travel, LLC</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>As licensed independent casino representatives for premiere casino resorts all over the world, Gem Casino Travel, LLC is focused on making your casino excursions as wonderful and memorable as we possibly can.
+We act as a full-service liaison between premiere gaming resorts and new and established blackjack, craps/dice, slots and poker players. We're here to assist you with making reservations, travel arrangements, opening lines of credit, and providing detailed information on promotional player's rates and specials for each luxury destination.</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>http://www.gemcasinotravel.com</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Black Diamond Casino Events</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Diamond Casino Events is a full-service entertainment company that prides itself in customizing our services to meet the needs of our customers. We opened in 2003 to fill a void in the casino party industry, SERVICE. Since then, we have gained an excellent reputation for the quality and authenticity of our equipment, customer service, and most importantly, FUN!
+Today, Black Diamond Casino Events offers more than just casino parties. We are also well known for our live game shows, video horse racing, company picnic events, and sports bar / arcade themed parties. 
+So whether you are looking for entertainment for a large corporate event or a small private party; a fundraiser or an after prom, our Black Diamond Casino Events team will be at your service from your first call of inquiry through the conclusion of the event. </t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>http://www.blackdiamondcasinoevents.com</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Last Chance Casino and Bingo</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Last Chance Casino and Bingo is owned and operated by the Sauk-Suiattle Indian Tribe. The new gaming facility will offer an exciting gaming destination with over 120 slot machines, bingo, dining, and entertainment. 
+The Sauk-Suiattle Indian people lived under the gaze of Whitehorse Mountain for many generations. We lived as hunters, gathers and fishermen in the region of Sauk Prairie near the present-day town of Darrington, Washington. In the early days, we were known as the Sah-ku-mehu.
+We were canoe people, plying the swift waters of the Sauk, Suiattle, Stillaguamish, Cascade and Skagit Rivers in our river canoes. Though our homelands were in the foothills of the North Cascades, we often traveled downriver to Puget Sound. There we harvested fish, shellfish and other foods not available in the mountains. We even voyaged in large seagoing canoes.  
+We also traveled over the mountains to gather food, herbs and other necessities. We became skilled horsemen, trading with tribes from Eastern Washington. Our free-roaming horses grazed among our relatives there.
+Our Homelands were the entire drainage area of the Sauk, Suiattle and Cascade Rivers. We had an important village at Sauk Prairie near the confluence of the Sauk and Suiattle Rivers. The village consisted of eight traditional cedar longhouses which were destroyed in 1884 by early non-Indian settlers who had laid claim to these lands under the U.S. Homestead Act.
+We thus became a landless people but continued to live in scattered groups close to our traditional homelands. Though many of our tribal members left the area or joined other neighboring tribes during our exodus, we maintained our tribal government, our social structure, our identity, and most importantly, our hope for the future.</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>http://lastchancecasinoandbingo.com/</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Hard Rock International</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Hard Rock International (HRI) is one of the most globally recognized companies with venues in over 70 countries spanning 265 locations that include owned/licensed or managed Rock Shops®, Live Performance Venues and Cafes. HRI also launched a joint venture named Hard Rock Digital in 2020, an online sportsbook, retail sportsbook and internet gaming platform. Beginning with an Eric Clapton guitar, Hard Rock owns the world’s largest and most valuable collection of authentic music memorabilia at more than 86,000 pieces, which are displayed at its locations around the globe. Hard Rock Hotels has been honored with Outstanding Guest Satisfaction and above for four consecutive years among Upper Upscale Hotels in J.D. Power’s North America Hotel Guest Satisfaction Study and in 2022, the iconic brand was ranked as the number one brand for the second year in a row. HRI is the first privately-owned gaming company designated U.S. Best Managed Company by Deloitte Private and The Wall Street Journal for the second year. Hard Rock was also honored as one of Forbes’ Best Employers for Women, Diversity and New Grads and a Top Large Employer in the Travel &amp; Leisure, Gaming, and Entertainment Industry. In 2021, Hard Rock Hotels &amp; Casinos received first place ranking in the Casino Gaming Executive Satisfaction Survey conducted by Bristol Associates Inc. and Spectrum Gaming Group for six of the last seven years. 
+We are committed to fostering diversity, equity and inclusion. DE&amp;I aims to address the needs of all team members – including Native Americans, women, LGBTQ+ community, people of color (BIPOC), people with disabilities and military veterans. 
+Diversity: is the celebration of differences and leveraging those difference to produce stellar results. 
+Equity: is a process of seeking fairness through deliberate and intentional actions.
+Inclusion: is when everyone has the freedom and comfort to express their thoughts, ideas, and opinions in a safe, trusting, and open environment.</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>http://www.hardrock.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>WinStar World Casino Hotel</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Every role matters. Join a team that is committed, hardworking, and loves to serve. The hospitality industry needs you.</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>https://apply.jobappnetwork.com/winstarcareers/en</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>5802763100</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Offshore Casino Resort</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>The Offshore Casino Resort’s projected location is 13 minutes from Miami Beach in a tax free trade zone. The property’s physical structure will face the world famous Ocean Drive and Miami skyscrapers. The property will feature 600 first class accommodations - over 2,000 slots, over 200 tables, online sports betting and online live dealers. The Resort will feature the world's largest undersea observatory -  spacious enough to accommodate up to three million visitors annually. The undersea view will be stunningly beautiful and profoundly emotional. Visitors will physically encounter the majestic great white sharks.</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>7133805147</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Golden Nugget Casino</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Golden Nugget Casino is a facilities services company based out of 17917 Bothell Everett Hwy, Bothell, Washington, United States.</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Ace High Casino Rentals</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Established in 2005, Ace High has years of professional experience creating California's best casino nights. We customize our casino party selections to give you Vegas away from Vegas. Our services provide a fun casino theme to company parties birthdays, fundraisers, conventions, grad nights, reunions, corporate parties, poker tournaments, holiday parties, office parties, charity events, and any casino themed event.
+Our top quality game tables are uniquely designed and manufactured for Ace High in Los Angeles. The tables we designed are black with red accents to provide sleek, fresh, modern ambiance to your casino themed party. 
+All the tables include: chips, cards, dice, wheels, and every gaming accessory unique to each game. We include such Vegas-featured card games as Blackjack, Poker, Roulette, Craps, Three-Card Poker, Caribbean Stud, Let-It-Ride, Wheel of Fortune, and more.
+Our professionally trained dealers will keep the games exciting throughout your event. If you have no idea how to play any game, don't worry. All our dealers are chosen for their courteous attitude, knowledge of all the games, and ability to intermingle with large groups. They have clean background checks and are ready to give you the casino entertainment you deserve.
+Our high-quality chips are fashioned with composite clay material that distinguishes itself from cheap plastic play chips that other vendors provide. We use these chips to provide an authentic Vegas experience, and separate ourselves from the competition.
+Our exceptional customer service has provided 1000+ top-quality casino events in California, and earned up a top ranking on Yelp. Ace High will provide you with professional staff who will be willing to work with you from the moment you start planning your event all the way to the end of your party. We will not stop until every specific detail of your event is completely covered.</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>http://www.AceHighCasinoRentals.com</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Isleta Casino &amp; Resort</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Isleta Casino &amp; Resort is a gambling &amp; casinos company based out of I 25 Exit 215, Albuquerque, New Mexico, United States.</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>http://www.isleta-casino.com</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Sugar Creek Casino</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Sugar Creek Casino is an Award-Winning Entertainment Destination based out of Hinton, Oklahoma.</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>http://sugarcreekcasino.com</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>4055422946</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Havasu Landing Resort &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Havasu Landing Resort &amp; Casino is an entertainment company based out of P.O. BOX 1976, Needles, California, United States.</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>http://www.havasulandingresortcasino.com/</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>760-858-4593</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Larry Flynt's Lucky Lady Casino</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Larry Flynt’s Lucky Lady Casino is home to 60 live-action table games including Poker, Blackjack, Baccarat, Mississippi Stud Poker, Big O (Omaha Poker), Pai Gow Poker, Three Card Poker, Ultimate Texas Hold’Em, and Pia Gow Tiles. The casino boasts well-appointed décor with a classic Monte-Carlo flair, luxurious private gaming rooms high stakes, comfortable ambiance, friendly staff, skilled dealers, engaging promotions, a variety of tournaments and superior food &amp; beverage service. Located just 15 minutes south of Downtown Los Angeles.</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>http://luckyladyla.com/</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>3103523400</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Gold Spike Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Welcome to Gold Spike Hotel &amp; Casino, a newly remodeled resort property located in the heart of Downtown Las Vegas, featuring a modern décor and well-appointed rooms and suites.
+At Gold Spike, you can get a chance to win big in the “friendliest casino in Vegas” at our video poker machines, table games, and more than 200 slots. We also feature $3.00 blackjack and 25 cent roulette, where you can enjoy all the fun of Las Vegas gambling action without ever having to leave your downtown hotel.</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>http://www.goldspike.com</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Prohibition Casino Parties</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We help make your events much more fun by offering casino gaming services (no real money involved) and photo booths to capture the moment. </t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>http://www.procasinoparties.com</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>4156911675</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Lady Luck Casino Nemacolin</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Fun is contagious at Lady Luck Casino Nemacolin.  Lady Luck features a variety of slot machines from penny &amp; nickel up to $100 machines as well as almost 30 table games, including Blackjack, Craps, Roulette, Three Card Poker and Mississippi Stud. Offering two restaurants, Otis &amp; Henry’s Bar and The Lone Wolf, we aspire to create an atmosphere that is fun, comfortable and entertaining.  Join our team of professionals as we take pride in training our employees to do their jobs well and enjoy themselves while working.</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>http://www.ladylucknemacolin.com</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>7243297526</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Prager Casino Productions, Corp.</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>"For The Ultimate in Casino Entertainment":
+Casino Parties
+Poker Tournaments
+Theme Decor 
+"High Rolling Excitement", "Non-Stop Entertainment" describes the spectacular party you and your guests will enjoy as we transform your next event into a thrilling and stylish "Casino."
+Entertain and delight your guests with one of the most exciting and dramatic participatory style events ever created.
+We are the experts and innovators bringing you the ultimate in design and style to impress the most discriminating tastes.</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>http://www.pragercasino.com</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>IGT</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>IGT (NYSE:IGT) is the global leader in gaming. We deliver entertaining and responsible gaming experiences for players across all channels and regulated segments, from Lotteries and Gaming Machines to Sports Betting and Digital. Leveraging a wealth of compelling content, substantial investment in innovation, player insights, operational expertise, and leading-edge technology, our solutions deliver unrivaled gaming experiences that engage players and drive growth. We have a well-established local presence and relationships with governments and regulators in more than 100 countries around the world, and create value by adhering to the highest standards of service, integrity, and responsibility. IGT has approximately 10,500 employees. For more information, please visit www.igt.com.</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>http://www.IGT.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Northern Waters Casino Resort</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Northern Waters Casino Resort offers a 25,000 square foot gaming floor for you to enjoy, with over 500 video and reel slot machine games. Escape for the day or the night at Northern Waters Casino Resort. Stay in one of our 132 rooms at the Dancing Eagles Hotel connected to our casino. We offer great rates and package deals are available. When you're ready to play outdoors, play in the great Northwoods on the 18 hole, roughly 200 acre Ottawa National Forest challenging Golf Course, located just steps away from the casino. The casino is owned and operated by the Lac Vieux Desert Band of Lake Superior Chippewa Indians.</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>http://www.northernwaterscasino.com</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>906-358-4226</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Omni Casino</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Established and operating since November 1997, Omni Casino® is owned by Peak Interactive N.V. a global leader in Online Entertainment committed to providing cutting edge online gaming in a safe and secure environment. Omni Casino® is a fully licensed casino operating under a license granted by the Government of Curacao.  It employs software developed by Playtech, the world's largest publicly traded online gaming software supplier.
+As online gaming continues to grow at a tremendous pace, Omni Casino® remains the industry leader by providing "the most secure and trusted gaming experience online"​.</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>http://omnicasino.com</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Tropicana Casino &amp; Resort Atlantic City</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Tropicana Casino &amp; Resort Atlantic City is a hospitality company based out of 2831 BOARDWALK, Atlantic City, New Jersey, United States.</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>River Bend Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One of the area's finest casinos, River Bend Casino &amp; Hotel is located just miles from Grand Lake. Stop by 24 hours a day, 365 days a year for fun, food and fortune. While you're here, you'll be able to experience the thrill of winning when you play in our newly enhanced casino with the latest slots and table games.
+River Bend Casino &amp; Hotel redefines the gaming experience with over 700 of your favorite slots, High-Limit room, River Bend Hotel, breathtaking decor, three dining options including the award-winning Twin Bridges Restaurant, Casino Deli and Club 60 West which also boasts a fully stocked bar.
+While you’re here, join the Club Wyandotte Players Club to start earning great rewards by playing your favorite games! As a Club Wyandotte member you are eligible for exclusive FREE PLAY offers, special event invitations, club member-specific drawings and giveaways and much more! Not to mention, your points are redeemable for many rewards including: bowling, billiards, and shuffleboard at Club 60 West, gas and car washes at the Turtle Stop Convenience Store, dining at River Bend Casino &amp; Hotel, FREE PLAY and much more!
+Take your gaming to the next level inside Club 60 West! Club 60 West features a fully-stocked bar with over 20 hi-definition TV's, lounge area, billiards and shuffleboard room, bowling lanes, event center and private party rooms. Club 60 West is always the right call for a day or night out!
+Excite your appetite at the Twin Bridges Restaurant! Visit us online at riverbendcasino.com for hours of operation. Come in today and experience fresh flavors with our menu that includes a variety of unique items, and many of the classic favorites. While you’re dining, don’t forget to complement each exquisite course with a specialty cocktail from the bar, located inside the Twin Bridges Restaurant. We call it Dining Redefined; you’ll call it delicious!
+Call 918.678.8400 to reserve a room at River Bend Hotel! </t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>https://riverbendcasino.com/</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>918-678-4946</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>TWO KINGS CASINO</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>While we continue to work on our $273 million destination casino resort, our brand-new temporary gaming facility is open 24/7 with 1,000 of the newest slot machines in a smoke-free environment.
+As we build North Carolina’s next premier gaming facility, we will continue to expand the number of machines and types of gaming offerings.
+Sign up for our rewards program and play with your Lucky North® Club Card to watch your benefits stack up.
+With round-the-clock action, the fun doesn’t stop at Catawba Two Kings Casino.</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>https://www.twokingscasino.com/casino</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>704-750-7777</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Agua Caliente Casino + Resort + Spa</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Agua Caliente Casino + Resort + Spa is a company based out of Bob Hope Dr, Rancho Mirage, California, United States.</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>http://hotwatercasino.com</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Indiana Live! Casino</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>??????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>http://www.indy-live.com</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Sac and Fox Casino</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>http://www.sacandfoxcasino.com</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Real Money Super Slots Online Casino Games USA</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Want to earn real money? Super Slots Online Casino Games offers you online casino games like: Firekirin, Ultra monster, Pots of Gold, Vegas x, Juwa, Orion Stars, Milkyway, Panda Master,Vpower 777, Golden Dragon, , Gold Star, Gold mine, Golden city, and many more. Get your Sweepstakes Games account now.</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/RealMoneyOnlineSlotsCasinoGames/</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>7165205078</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Coyote Valley Shodakai Casino</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Located just 9 miles north of Ukiah in Mendocino County, Coyote Valley Casino is the hottest destination off of Highway 101. We are the place for community activities, fueling station, casino, bar, restaurant, event showroom, cultural events and so much more!</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>http://www.coyotevalleycasino.com</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>(707) 485-0700</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">National Association of Casino Party Operators (NACPO) </t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The National Association of Casino Party Operators (NACPO) is an association of professionals who specialize in casino parties, casino night fundraisers and casino themed events. NACPO is dedicated to promoting high ethical and quality standards in the Casino Party Industry. NACPO members are among the most experienced casino party operators in the country and are your trusted source for a professional and high quality casino party!
+Whether you are planning a private birthday party for 25 guests, a fundraiser for 200 or a corporate event for 1000 guests, there is a NACPO member in your area with the expertise to make your casino night an event to remember!
+ </t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>http://www.NACPO.org</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>202-838-6843</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Running Creek Casino</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Since May 2012, Running Creek Casino has been offering visitors a full-service gaming destination in a vineyard setting along the historic Highway 20 corridor of Upper Lake, California. This beautiful location nestled in the scenic Clear Lake region offers a mecca for wine enthusiasts, outdoor adventurers, fishermen, hikers and watersports fanatics.
+Featuring 349 slot machines, five table games, a player’s club booth, three dining experiences, a fun-filled bar, first-class banquet room facilities, live entertainment and weekly sporting event viewings on large screen TVs, Running Creek Casino is the “Place to Play” in Lake County!
+Come see for yourself and "Experience the Difference."</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>http://runningcreekcasino.com</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>(707) 262-5500</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Legends Resort &amp; Casino Arkansas</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Legends Resort &amp; Casino is a premier entertainment destination designed for the Arkansas River Valley. Its thoughtfully planned venues and diverse entertainment choices create the perfect setting for guests to feel and be legendary. Throughout the resort and casino property, guests will enjoy a celebration of Arkansas' legendary figures in sports, music and entertainment; its cuisine; and the landscape of The Natural State. 
+The development is planned for Russellville, Arkansas, on approximately 130 acres north of Interstate 40 along Nob Hill Road, between Weir Road and Alaskan Trail. 
+The $225 million Legends Resort &amp; Casino Arkansas brings more than world-class entertainment to the region by featuring robust amenities centered around relaxed luxury: 
+•	Approximately 50,000 square feet of gaming space accommodating 1,200 slot machines and 32 table games; a sportsbook will be located within a high-end sports bar. 
+•	Luxury hotel with 200 rooms, resort-style pool, spa and fitness center. 
+•	15,000 square feet of mixed-use conference and entertainment space accommodating 1,000 people. 
+•	Robust culinary experience with a variety of food and beverage options - including a food hall, high-end steakhouse, grab &amp; go concept, and multiple bar and nightlife options. 
+The project is expected to generate more than 1,000 direct jobs across a number of industries, including management, hotel staff, culinary directors, engineers and more.
+We look forward to bringing economic growth to the Arkansas River Valley upon opening.</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>https://legendsarkansas.com/</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>All-In Productions Casino Rentals, LLC</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Casino Equipment Rentals and Party Planners since 2009. All-in Productions is a premiere provider of casino rentals and corporate casino party planning entertainment throughout California.
+We service all areas of California, such as Orange County, Los Angeles, San Diego, Irvine, and Riverside County.   We pride ourselves on making your casino night event a resounding success by providing you with the very best in casino rental equipment, service and personnel. We are confident you will not find a more responsive professional provider of entertainment in the corporate casino entertainment industry.
+All-In Productions designs and hosts your casino party event with all of the games you would find in Las Vegas and Monte Carlo.
+All-In Productions is a full-service casino theme party company headquartered in California that brings a Vegas style casino directly to your event or home.  We offer everything necessary for a quality casino experience including casino equipment rentals, dealers, and great party add-ons that are available for up to 1000 guests.
+The tables and appointments we utilize are the same ones you’ll find at the finest casinos in Las Vegas and Monte Carlo. Yes, it is that nice because we obtain it from the same suppliers. We bring the most realistic and authentic Monte Carlo Nights and Texas Hold’em Tournaments in the industry to your corporate event.
+Whether you’re gathering for a convention, trade show, sales conference, or a team building function, your guests will enjoy the realistic atmosphere of our private casino.
+Bring the charm and glamour of Las Vegas and Monte Carlo to your next event! We host groups from 50 to 1,000 people, with each event tailored to your individual needs. Our courteous dealers will provide instruction to ensure your guests thoroughly enjoy the evening of entertainment.</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>http://www.All-InProductions.net</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>(866) 875-8628</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Marriott Aruba Resort &amp; Stellaris Casino</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Marriott Aruba Resort &amp; Stellaris Casino is a hospitality company based out of L.G SMITH BLVD101, Boca Raton, Florida, United States.</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Fitz Tunica Casino &amp; Hotel</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>If you’re looking for a casino hotel in Tunica, Mississippi - you’ve found the best! Located right on the eastern banks of the Mississippi River - you’ll find more than 500 comfortable rooms and suites on nine floors in our hotel. We’ve got over 900 of the newest and most popular slot machines. Plus, action packed table games! Enjoy casual dining options from our all-you-can-eat Riverview Buffet, Fuddruckers World's Greatest Hamburgers, the BaZaar Pizza &amp; more. Stop in and experience the Fitz friendly hospitality - Luck Lives Here!</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>https://www.fitzgeraldstunica.com</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>(662) 363.5825</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>California Grand Casino</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>California Grand Casino is a cardroom located at 5988 Pacheco Blvd, Pacheco, California, United States.</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>http://www.californiagrandcasino.com</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Grand Soleil Casino Resort</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Grand Soleil Casino Resort is located in Natchez, Mississippi. Located on the bluff Grand Soleil's Hotel offers breath taking views of the Mighty Mississippi from most of our 124 guest rooms and fine dining restaurant, Vue. The resort also features banquet and meeting space with state of the art audio and visual equipment, and can accommodate any event up to 400 people. Other amenities include fitness center, swimming pool/whirlpool, poolside bar, hotel gift shop, and group and tour specials.
+Our Casino, with a planned opening late spring 2009, is located on the eastern bank of the Mississippi River immediately south of the Mississippi Bridge. The Casino will offer state of the art slot machines, as well as Blackjack, Craps, Roulette, 3 Card Poker,
+and a Poker Room.
+Live entertainment will be featured at our themed “Blues Bar”. Food venues to be offered in the casino are in the planning phase and will be announced soon.</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>http://www.grandsoleilcasino.com</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Venetian Resort Hotel Casino</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Venetian Resort Hotel Casino is an entertainment company based out of
+3355 S Las Vegas Blvd, Las Vegas, NV 89109 111 Perkins St, Jamaica Plain, Massachusetts, United States.</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Fitzgerals Casino Hotel Las Vegas</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Marketing/Advertising manager in downtown Las Vegas... Can't get much better than this!</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>http://www.fitzgeraldslasvegas.com</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Tri-State Casino &amp; Resort</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Entertainment! That's Tri-State Casino &amp; Resort's specialty. Our convenient, friendly and exciting atmosphere provides the most fulfilling experience you will ever have!
+With 90,000 square feet of gaming entertainment and more than 1,300 slots, your senses will be exhilarated to the max. The bright lights of all the hits, machines, live racing and entertainment will widen your eyes, the sounds of winning jackpot bells and the cannon exploding will flow through your ears, the touch of all your winnings will leave you wanting more and the smell and taste of mouth-watering entrées and tantilizing desserts will satisfy your tastebuds.
+Do you like New Orleans where the party never ends? You'll love our Mardi Gras gaming area where festiveness abounds! There are always winners at Tri-State Casino &amp; Resort.</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>http://www.tristateracetrack.com</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Elk Valley Casino</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Check out your company's website.</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>http://www.elkvalleycasino.com</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Seneca Niagara Resort &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Seneca Niagara Resort &amp; Casino is a recreational facilities and services company based out of 310 4TH ST, Niagara Falls, New York, United States.</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Red Garter Hotel &amp; Casino</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Experience a new casino that delivers the ultimate experience in fun and excitement.</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>http://redgartercasino.com</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>HIGH WINDS CASINO</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>High Winds can be summed up in 2 words:  Casual Awesomeness.  Over 450 slots featuring your favorites as well as new ones... Comfort food at very comfortable prices in the Steakhouse Restaurant... Happy Hour drink specials weekdays 4-8pm in the Steakhouse Lounge... Hot Seat drawings as well as other promotions every day, plus big giveaways every month!  High Winds is proudly owned and operated by the Ottawa Tribe of Oklahoma.</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>http://www.highwindscasino.com</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>918-541-9463</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Casingos, BlockChain, BitCoin, Crypto, DeFi, NFT, Bingo Casino, Adult Entertainment, Game Compliance</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Compliant Games Ready to Go or Custom Development
+Contact On LinkedIn
+https://www.linkedin.com/in/tombhines/
+Scripting
+SecondLife, OpenSimulator, LSL Linden Scripting Language
+Unity3D, C#
+Game Systems
+-On Location, Online and Mobile, Stand Alone and Server Based, Games
+-Video Bingo (Class II), 8-Liner, Video Slot Reels, Video Poker, Progressive, Arcade, Action, Racing, Multi-Game, Multi-Player.
+Consulting
+-Game Commission Compliant Systems
+-Game Compliance Management
+-Business Intelligence Reporting
+-Player/Customer Analytics
+-Actuarial Statistics 
+-Analyst/Programming
+-Web Site Programming, Flash Animation, Maintenance, Hosting, Administration, Promotion SEO SEM SMO SMM
+.Net Programming, PC, Web, Mobile
+-OOP Analysis, Design, and Architecture
+-c#, XNA, VB, C++, Java, PHP Programming, Unity 3D
+-Workstation Assembly
+-Peripheral Assembly, Programming, Maintenance (Printer, Validator, Game Controller)
+-Game Terminal Assembly
+-Network Assembly
+-Network Administration, Printers, Copiers, Scanners
+-Database Development
+-Data Analyst
+-Database Administration
+-Electrical Engineering
+-UL Certification
+-Micro-controller Programming
+-Casino Game Content Design
+-Game Graphics And Artwork Design
+Is it Casino Slot Reels or Bingo? It's Both, Casingos! 
+Casingos games with a Bingo Mini-Card, Matching Slot Reels Animation and Exciting Bonus Games! Spin the Reels, Shoot the Ships, Find the Treasure on the Map, Find the Jewels under the Bag, Pirate Walk the Plank. This combination brings together the Interest of the traditional casino game players, adds some fun, and brings in even more interest of the general gaming community. Tired of Old Slot Reels and Bingo. Now It's Casingos!
+Targets: Bingo-Casinos, Bar and Tavern, Co-op Casinos, Condominium Association Bingo, Not-For-Profit bingo, Church Bingo, Online Casino, remote, open source casino
+http://www.linkedin.com/pub/tombhines</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>http://www.casingos.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Texas Casino Parties</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Texas Casino Parties is a Casino Night company based out of 6333 E Mockingbird Ln Pmb 614, Dallas, Texas, United States.</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>http://www.texascasinoparties.com</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>469-223-3664</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Club 52 Casino Style Gaming</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Catch Casino style poker action with 40 tables of non-stop action including Texas Hold 'Em, $5-5PLO, $2-5NL, $1-2NL, Omaha Hi-Lo and more. Now dealing the Hottest Games in Florida... Fortune Pai Gow, Ultimate Texas Hold 'Em, 3Card and High Card Flush. Come play at Brevard County's Only Poker Room.
+OTB / Simulcast wagering with over 200 screens always available.</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>https://www.club52poker.com</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>(321) 259-9800</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Mt Airy Casino Resort</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Mt Airy Casino Resort is a hospitality company based out of 44 WOODLAND RD, Reading, Pennsylvania, United States.</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nate323</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>7146063660</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Palm Beach Casino Line</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Founded in 1997, Palm Beach Casino Line operated two unique vessels featuring Class III casino gaming, food and beverage, and live entertainment, on twice daily coastal cruises from the Port of Palm Beach, Florida: M/V Palm Beach Princess and Big Easy (started operations in 2005).  
+M/V Palm Beach Princess was an eight deck, 421 foot, 6,659 GRT, 800 person capacity passenger vessel, offering twice daily, five-hour cruises, featuring a 15,000 square foot, Class III gaming casino, with 400+ slot machines, 30+ table games (blackjack; craps; roulette; Three Card Poker, and; Let It Ride), poker, sports book (with satellite televisions) and bingo.  In addition, the cruise experience featured a lavish buffet and gourmet à la carte dining; live revue shows; two live musical performance venues; skeet shooting; New York-style deli; five lounges; facial and massage spa services; swimming pool and sun decks; cabins and VIP special events.  
+In 2005, Palm Beach Casino Line introduced a second vessel, Big Easy Casino, a 1,200 capacity vessel offering twice-daily, five-hour cruises, featuring 40,000 SF of public space, including a 30,000 SF casino.  The Class III casino featured 550 slot machines, 23 table games (blackjack; roulette; craps; Three Card Poker; Big Raise Hold 'Em; mini baccarat and a Big 6 Wheel), poker (seven tables), and sports book (with satellite televisions).  Three distinctive food outlets were offered: SWIMPS (a full service restaurant featuring dining with a Cajun flair); Gators on The Quarter (full service casual dining), and; Po Boys (self service New Orlean's-style sandwich, beignet and coffee stand).  Four highly-themed beverage outlets were available, including Gators on The Quarter (located on the outdoor top deck, with live music); Bar Absinthe ( a throwback, seductive cocktail area); The Bead Bar (honoring New Orleans'​ Mardi Gras tradition), and; Hurricanes (featuring dueling pianos).  </t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Glacier Peaks Casino</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Glacier Peaks Casino is an entertainment company based out of 46 Museum Loop, Browning, Montana, United States.</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>https://www.glacierpeakscasino.com/</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>4063382530</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Connect Casino Road</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Connect Casino Road is a company based out of EVERETT, WA, United States.</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>http://connectcasinoroad.org</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get directions </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
